--- a/BalanceSheet/EQIX_bal.xlsx
+++ b/BalanceSheet/EQIX_bal.xlsx
@@ -1541,10 +1541,8 @@
           <t>Notes Payable</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>150003000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>150186000.0</v>
@@ -4884,10 +4882,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>89575000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>89134000.0</v>
@@ -5156,7 +5152,7 @@
         <v>11876000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>11376000000.0</v>
+        <v>9227654000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>9000832000.0</v>
@@ -5283,7 +5279,7 @@
         <v>13080000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>13288000000.0</v>
+        <v>11107593000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>10422799000.0</v>
